--- a/AR Structured p1 consumer test data v0.6.xlsx
+++ b/AR Structured p1 consumer test data v0.6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hscic365-my.sharepoint.com/personal/mihi2_hscic_gov_uk/Documents/0002 GP Connect/Test data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{3CF373CA-0A74-4452-805F-F42877CFEDE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{72B40DCD-973A-4714-8A55-3FE1A07CD201}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{3CF373CA-0A74-4452-805F-F42877CFEDE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2F07C633-E219-4E08-A721-9FF9CA9A182E}"/>
   <bookViews>
-    <workbookView xWindow="336" yWindow="336" windowWidth="15432" windowHeight="9912" tabRatio="671" xr2:uid="{FEF94360-9E61-4F5A-BB07-51DE2BADEC96}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="25065" windowHeight="12630" tabRatio="671" xr2:uid="{FEF94360-9E61-4F5A-BB07-51DE2BADEC96}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance and Change Notes" sheetId="4" r:id="rId1"/>
@@ -2165,36 +2165,36 @@
     <t>Meds Record 1 - Auth Plan</t>
   </si>
   <si>
-    <t>Contains details of the authoristation/plan for the 1st medication record. This consists of a MedicationStatement and a MedicationRequest with the intent set to 'plan'</t>
-  </si>
-  <si>
     <t>Meds data descriptions</t>
   </si>
   <si>
     <t>Is an item by item description of what the test data covers and notes on key points to pay attention too when testing.</t>
   </si>
   <si>
-    <t>Contains detail of all the orders for the 1st medication record. Each line relates to a medicationRequest resource that is included in the json and has an intent set to 'order'</t>
-  </si>
-  <si>
-    <t>Contains details of the authoristation/plan for the 2nd medication record. This consists of a MedicationStatement and a MedicationRequest with the intent set to 'plan'</t>
-  </si>
-  <si>
-    <t>Contains detail of all the orders for the 2nd medication record. Each line relates to a medicationRequest resource that is included in the json and has an intent set to 'order'</t>
-  </si>
-  <si>
-    <t>Contains details of all the allergyIntolerance resources that are contained in the 3rd record provided.</t>
-  </si>
-  <si>
     <t>Added DataIds to the Meds data descriptions and guidance notes in this screen</t>
+  </si>
+  <si>
+    <t>Contains details of the authorisation/plan for the 1st medication record. This consists of a MedicationStatement and a MedicationRequest with the intent set to 'plan'.</t>
+  </si>
+  <si>
+    <t>Contains detail of all the orders for the 1st medication record. Each line relates to a medicationRequest resource that is included in the json and has an intent set to 'order'.</t>
+  </si>
+  <si>
+    <t>Contains details of the authorisation/plan for the 2nd medication record. This consists of a MedicationStatement and a MedicationRequest with the intent set to 'plan'.</t>
+  </si>
+  <si>
+    <t>Contains details of all the AllergyIntolerance resources that are contained in the 3rd record provided.</t>
+  </si>
+  <si>
+    <t>Contains detail of all the orders for the 2nd medication record. Each line relates to a MedicationRequest resource that is included in the json and has an intent set to 'order'.</t>
   </si>
   <si>
     <t>This spreadsheet is currently still a work in progress. 
 It documents the data items in the 3 test records (2 containing medications and 1 containing allergies) that we have supplied in order to assist GP Connect consumers of the structured data to clinically assure their systems. The aim is to provide a concise view of the data to simplify the testing process.
-These records have been created by combining the output from the 3 GP systems that have achieved DevMac for GP Connect so far and are delibrately constructed in such a way as to highlight the variation in data that may be recieved by a consuming system. The data contained in the records is test data and although we have tried to use well known medications and allergies it is not designed to be realistic but in order to maximise coverage of the data.
-The contents of each of the tabs is detailed below. The data descriptions can be used in conjunction with the Auth-Plan and Orders tabs to ensure that all resources that are contained in the json are imported into your system and nothing is missing. Also it contains variations in the many elements of the resources so that the data refelcts all the ways a medication or allergy could be entered into a GP system. It provides a tool to help verify all the relevant clinical data that is present in the json files is succussesfully translated and presented to the user in a way that preserves the clinical meaning. 
-We would recommend that how this data is displayed in the consuming system is discussed and decided upon with the clinical input of both end users and the clinical safety officer who are responsible for the commisioning/development of the consuming product. 
-Whoever is using this spreadsheet will find it helpful to have read the GP Connect specification areas relating to Medications and Allergies. They should also be aware of the GP Connect Hazard Log and understand the clinical risks it contains which using this test data will help to mitigate.</t>
+These records have been created by combining the output from the 3 GP systems that have achieved DevMac for GP Connect so far and are deliberately constructed in such a way as to highlight the variation in data that may be received by a consuming system. The data contained in the records is test data and although we have tried to use well known medications and allergies it is not designed to be realistic but in order to maximise coverage of the data.
+The contents of each of the tabs is detailed below. The data descriptions can be used in conjunction with the Auth-Plan and Orders tabs to ensure that all resources that are contained in the json are imported into your system and nothing is missing. Also, it contains variations in the many elements of the resources so that the data reflects all the ways a medication or allergy could be entered into a GP system. It provides a tool to help verify all the relevant clinical data that is present in the json files is successfully translated and presented to the user in a way that preserves the clinical meaning. 
+We would recommend that how this data is displayed in the consuming system is discussed and decided upon with the clinical input of both end users and the clinical safety officer who are responsible for the commissioning/development of the consuming product. 
+Whoever is using this spreadsheet will find it helpful to have read the GP Connect specification areas relating to Medications and Allergies. They should also be aware of the GP Connect Hazard Log and understand the clinical risks it contains - which using this test data will help to mitigate.</t>
   </si>
 </sst>
 </file>
@@ -2771,30 +2771,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2C6695-2FDD-46A6-8364-1FF0EDDE74B0}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.86328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="106.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="108.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:3" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="47" t="s">
         <v>701</v>
       </c>
       <c r="C1" s="47"/>
     </row>
-    <row r="2" spans="1:3" ht="253.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="253.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="48" t="s">
         <v>712</v>
       </c>
       <c r="C2" s="49"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
         <v>699</v>
       </c>
@@ -2803,52 +2803,52 @@
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B5" s="46"/>
       <c r="C5" s="1" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="46" t="s">
         <v>703</v>
       </c>
       <c r="B6" s="46"/>
       <c r="C6" s="1" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="46" t="s">
         <v>702</v>
       </c>
       <c r="B7" s="46"/>
       <c r="C7" s="1" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="46" t="s">
         <v>703</v>
       </c>
       <c r="B8" s="46"/>
       <c r="C8" s="1" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="46" t="s">
         <v>702</v>
       </c>
       <c r="B9" s="46"/>
       <c r="C9" s="1" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="46" t="s">
         <v>390</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="44" t="s">
         <v>226</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0.3</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0.3</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0.4</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0.4</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0.5</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0.6</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>44005</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -2959,18 +2959,18 @@
       <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="30.2265625" customWidth="1"/>
-    <col min="3" max="3" width="22.86328125" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.86328125" customWidth="1"/>
-    <col min="6" max="6" width="40.2265625" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
-    <col min="8" max="8" width="22.76953125" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="40.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>657</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
         <v>639</v>
       </c>
@@ -3004,7 +3004,7 @@
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
     </row>
-    <row r="3" spans="1:7" ht="62.1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>658</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>659</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>661</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="37.5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>662</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>660</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>663</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>664</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>665</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>666</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>667</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>668</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>669</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>670</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>671</v>
       </c>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>672</v>
       </c>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>673</v>
       </c>
@@ -3330,7 +3330,7 @@
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>674</v>
       </c>
@@ -3347,7 +3347,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>675</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>676</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>677</v>
       </c>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>678</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>679</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="37.5" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>680</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>681</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>682</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>683</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>684</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>685</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="37.5" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>686</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="39" t="s">
         <v>640</v>
       </c>
@@ -3600,7 +3600,7 @@
       <c r="F32" s="41"/>
       <c r="G32" s="41"/>
     </row>
-    <row r="33" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>687</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="37.5" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>688</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>689</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>690</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>691</v>
       </c>
@@ -3694,7 +3694,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>692</v>
       </c>
@@ -3710,7 +3710,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="37.5" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>693</v>
       </c>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" s="18" customFormat="1" ht="49.8" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:7" s="18" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>694</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="18" customFormat="1" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:7" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>695</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>696</v>
       </c>
@@ -3776,8 +3776,8 @@
         <v>599</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="18" customFormat="1" ht="12.3" x14ac:dyDescent="0.4"/>
-    <row r="44" spans="1:7" s="18" customFormat="1" ht="12.3" x14ac:dyDescent="0.4"/>
+    <row r="43" spans="1:7" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:7" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B24:B25"/>
@@ -3798,41 +3798,41 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.2265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="25.76953125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="26.86328125" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="27.453125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.76953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.2265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.76953125" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25.77734375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" style="22" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="22" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="41" style="7" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="30.453125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="35.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.44140625" style="1" customWidth="1"/>
     <col min="19" max="19" width="13" style="22" customWidth="1"/>
-    <col min="20" max="20" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.86328125" style="1"/>
-    <col min="22" max="22" width="20.08984375" style="7" customWidth="1"/>
-    <col min="23" max="26" width="8.86328125" style="1"/>
-    <col min="27" max="27" width="11.6796875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="21.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="8.86328125" style="22"/>
-    <col min="31" max="34" width="8.86328125" style="1"/>
-    <col min="35" max="35" width="23.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="26.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="27.76953125" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="8.86328125" style="1"/>
+    <col min="20" max="20" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.88671875" style="1"/>
+    <col min="22" max="22" width="20.109375" style="7" customWidth="1"/>
+    <col min="23" max="26" width="8.88671875" style="1"/>
+    <col min="27" max="27" width="11.6640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="21.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="8.88671875" style="22"/>
+    <col min="31" max="34" width="8.88671875" style="1"/>
+    <col min="35" max="35" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="26.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="27.77734375" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:37" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>311</v>
       </c>
@@ -3878,7 +3878,7 @@
       <c r="AI1" s="52"/>
       <c r="AJ1" s="52"/>
     </row>
-    <row r="2" spans="1:37" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>229</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>203</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>58</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>65</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>71</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>79</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>88</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>94</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:37" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>101</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>107</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>115</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>122</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>129</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>138</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>145</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>115</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>158</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>204</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>48</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>217</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>287</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>290</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:37" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>293</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>298</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>301</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:37" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>303</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>306</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:37" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>309</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>536</v>
       </c>
@@ -6665,26 +6665,26 @@
       <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="9.86328125" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.76953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.86328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.86328125" style="1"/>
-    <col min="7" max="7" width="26.2265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.31640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.31640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="8.86328125" style="1"/>
-    <col min="15" max="15" width="27.31640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.86328125" style="1"/>
-    <col min="17" max="17" width="15.6796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="33.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="26.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="8.88671875" style="1"/>
+    <col min="15" max="15" width="27.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="1"/>
+    <col min="17" max="17" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33.5546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>168</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>169</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>170</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>171</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>172</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>173</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>174</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>175</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>176</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>177</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>178</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>179</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>180</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>181</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>182</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>183</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>184</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>185</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>186</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>187</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>188</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>189</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>190</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>191</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>192</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>193</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>194</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>195</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>196</v>
       </c>
@@ -8190,17 +8190,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B33" s="22">
         <v>43738</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B34" s="22">
         <v>38966</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>347</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>348</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="49.8" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>349</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>350</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C39" s="7" t="s">
         <v>351</v>
       </c>
@@ -8458,7 +8458,7 @@
       <c r="J39" s="6"/>
       <c r="O39" s="7"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>352</v>
       </c>
@@ -8500,7 +8500,7 @@
       </c>
       <c r="O40" s="7"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>353</v>
       </c>
@@ -8542,7 +8542,7 @@
       </c>
       <c r="O41" s="7"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>354</v>
       </c>
@@ -8584,7 +8584,7 @@
       </c>
       <c r="O42" s="7"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>355</v>
       </c>
@@ -8626,7 +8626,7 @@
       </c>
       <c r="O43" s="7"/>
     </row>
-    <row r="44" spans="1:18" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>533</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>540</v>
       </c>
@@ -8712,43 +8712,43 @@
       </c>
       <c r="O45" s="7"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C46" s="7"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="O46" s="7"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C47" s="7"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="O47" s="7"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C48" s="7"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="O48" s="7"/>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.5">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="7"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="O49" s="7"/>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.5">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="7"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="O50" s="7"/>
     </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.5">
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="7"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="O51" s="7"/>
     </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.5">
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="7"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
@@ -8768,63 +8768,63 @@
       <selection activeCell="A11" sqref="A11:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.76953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.76953125" customWidth="1"/>
-    <col min="4" max="4" width="11.76953125" customWidth="1"/>
-    <col min="5" max="6" width="8.86328125" customWidth="1"/>
-    <col min="7" max="7" width="11.86328125" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.76953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.31640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.2265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.76953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.54296875" customWidth="1"/>
+    <col min="14" max="14" width="32.5546875" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.453125" customWidth="1"/>
+    <col min="16" max="16" width="21.44140625" customWidth="1"/>
     <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="28" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.86328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="37.2265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.76953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.76953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.2265625" style="11" customWidth="1"/>
-    <col min="28" max="28" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.2265625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.31640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.31640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.2265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.21875" style="11" customWidth="1"/>
+    <col min="28" max="28" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="17" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="44" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.2265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="36" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="57.6796875" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="4.6796875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="57.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="63" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.31640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="2.31640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="3" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.6796875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="1.54296875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="44.31640625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="4.6796875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="4.86328125" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="1.54296875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="1.5546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="1.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:37" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>311</v>
       </c>
@@ -8871,7 +8871,7 @@
       <c r="AJ1" s="52"/>
       <c r="AK1" s="52"/>
     </row>
-    <row r="2" spans="1:37" s="2" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:37" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="31" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:37" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>594</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="31" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:37" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
         <v>595</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="31" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:37" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
         <v>593</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="31" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:37" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
         <v>589</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="31" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:37" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
         <v>592</v>
       </c>
@@ -9375,7 +9375,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="31" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:37" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
         <v>592</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="31" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:37" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
         <v>591</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="31" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:37" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
         <v>590</v>
       </c>
@@ -9611,7 +9611,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:37" s="31" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:37" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
         <v>588</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="12" spans="1:37" s="31" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:37" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
         <v>588</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="31" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:37" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
         <v>587</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:37" s="31" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:37" s="31" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
         <v>587</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="15" spans="1:37" s="31" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:37" s="31" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
         <v>586</v>
       </c>
@@ -10011,7 +10011,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:37" s="31" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:37" s="31" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
         <v>586</v>
       </c>
@@ -10086,77 +10086,77 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="7:27" s="31" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="17" spans="7:27" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G17" s="36"/>
       <c r="Z17" s="38"/>
       <c r="AA17" s="38"/>
     </row>
-    <row r="18" spans="7:27" s="31" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="18" spans="7:27" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G18" s="36"/>
       <c r="Z18" s="38"/>
       <c r="AA18" s="38"/>
     </row>
-    <row r="19" spans="7:27" s="31" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="19" spans="7:27" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G19" s="36"/>
       <c r="Z19" s="38"/>
       <c r="AA19" s="38"/>
     </row>
-    <row r="20" spans="7:27" s="31" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="20" spans="7:27" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G20" s="36"/>
       <c r="Z20" s="38"/>
       <c r="AA20" s="38"/>
     </row>
-    <row r="21" spans="7:27" s="31" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="21" spans="7:27" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G21" s="36"/>
       <c r="Z21" s="38"/>
       <c r="AA21" s="38"/>
     </row>
-    <row r="22" spans="7:27" s="31" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="22" spans="7:27" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G22" s="36"/>
       <c r="Z22" s="38"/>
       <c r="AA22" s="38"/>
     </row>
-    <row r="23" spans="7:27" s="31" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="23" spans="7:27" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G23" s="36"/>
       <c r="Z23" s="38"/>
       <c r="AA23" s="38"/>
     </row>
-    <row r="24" spans="7:27" s="31" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="24" spans="7:27" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G24" s="36"/>
       <c r="Z24" s="38"/>
       <c r="AA24" s="38"/>
     </row>
-    <row r="25" spans="7:27" s="31" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="25" spans="7:27" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G25" s="36"/>
       <c r="Z25" s="38"/>
       <c r="AA25" s="38"/>
     </row>
-    <row r="26" spans="7:27" s="31" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="26" spans="7:27" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G26" s="36"/>
       <c r="Z26" s="38"/>
       <c r="AA26" s="38"/>
     </row>
-    <row r="27" spans="7:27" s="31" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="27" spans="7:27" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G27" s="36"/>
       <c r="Z27" s="38"/>
       <c r="AA27" s="38"/>
     </row>
-    <row r="28" spans="7:27" s="31" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="28" spans="7:27" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G28" s="36"/>
       <c r="Z28" s="38"/>
       <c r="AA28" s="38"/>
     </row>
-    <row r="29" spans="7:27" s="31" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="29" spans="7:27" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G29" s="36"/>
       <c r="Z29" s="38"/>
       <c r="AA29" s="38"/>
     </row>
-    <row r="30" spans="7:27" s="31" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="30" spans="7:27" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G30" s="36"/>
       <c r="Z30" s="38"/>
       <c r="AA30" s="38"/>
     </row>
-    <row r="31" spans="7:27" s="31" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="31" spans="7:27" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G31" s="36"/>
       <c r="Z31" s="38"/>
       <c r="AA31" s="38"/>
@@ -10180,26 +10180,26 @@
       <selection activeCell="F1" sqref="F1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.76953125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="9.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.6796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.2265625" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="31.77734375" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="37" style="1" customWidth="1"/>
-    <col min="9" max="10" width="8.86328125" style="22"/>
-    <col min="11" max="14" width="8.86328125" style="1"/>
+    <col min="9" max="10" width="8.88671875" style="22"/>
+    <col min="11" max="14" width="8.88671875" style="1"/>
     <col min="15" max="15" width="23" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.86328125" style="1"/>
-    <col min="17" max="17" width="12.453125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.76953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.86328125" style="1"/>
+    <col min="16" max="16" width="8.88671875" style="1"/>
+    <col min="17" max="17" width="12.44140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -10255,7 +10255,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>622</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>623</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>624</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>625</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>626</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>627</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>628</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>629</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>630</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>631</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>632</v>
       </c>
@@ -10751,7 +10751,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>633</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>634</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>635</v>
       </c>
@@ -10886,7 +10886,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>636</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>637</v>
       </c>
@@ -10974,7 +10974,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>638</v>
       </c>
@@ -11032,43 +11032,43 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.31640625" style="27" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" style="27" customWidth="1"/>
     <col min="2" max="2" width="22" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="27" customWidth="1"/>
-    <col min="4" max="4" width="35.76953125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="81.08984375" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.54296875" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.453125" style="27" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="60.76953125" style="27" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="36.54296875" style="27" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="29.08984375" style="27" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="40.31640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.08984375" style="27" customWidth="1"/>
-    <col min="13" max="13" width="20.2265625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.76953125" style="27" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="32.31640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.86328125" style="27" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="35.77734375" style="27" customWidth="1"/>
+    <col min="5" max="5" width="81.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" style="27" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="60.77734375" style="27" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="36.5546875" style="27" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="29.109375" style="27" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="40.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.109375" style="27" customWidth="1"/>
+    <col min="13" max="13" width="20.21875" style="27" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.77734375" style="27" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="32.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.88671875" style="27" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="39" style="27" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="21.76953125" style="27" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="37.54296875" style="27" customWidth="1"/>
-    <col min="20" max="20" width="19.6796875" style="27" customWidth="1"/>
-    <col min="21" max="21" width="13.453125" style="27" customWidth="1"/>
-    <col min="22" max="22" width="27.6796875" style="27" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.08984375" style="27" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.76953125" style="27" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="37.5546875" style="27" customWidth="1"/>
+    <col min="20" max="20" width="19.6640625" style="27" customWidth="1"/>
+    <col min="21" max="21" width="13.44140625" style="27" customWidth="1"/>
+    <col min="22" max="22" width="27.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.77734375" style="27" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="44" style="27" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="45.6796875" style="27" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="50.2265625" style="27" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="45.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="50.21875" style="27" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="44" style="27" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="45.6796875" style="27" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="35.54296875" style="27" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="25.2265625" style="27" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="8.86328125" style="27"/>
+    <col min="29" max="29" width="45.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="35.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.21875" style="27" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="8.88671875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>356</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>387</v>
       </c>
@@ -11216,7 +11216,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>398</v>
       </c>
@@ -11266,7 +11266,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>405</v>
       </c>
@@ -11307,7 +11307,7 @@
         <v>40521</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>407</v>
       </c>
@@ -11357,7 +11357,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>411</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>415</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>417</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>421</v>
       </c>
@@ -11554,7 +11554,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>424</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>430</v>
       </c>
@@ -11693,7 +11693,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>440</v>
       </c>
@@ -11779,7 +11779,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>447</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>451</v>
       </c>
@@ -11912,7 +11912,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>456</v>
       </c>
@@ -11962,7 +11962,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>460</v>
       </c>
@@ -12012,7 +12012,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>463</v>
       </c>
@@ -12062,7 +12062,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>467</v>
       </c>
@@ -12112,7 +12112,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>471</v>
       </c>
@@ -12162,7 +12162,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>475</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>40798</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>478</v>
       </c>
@@ -12256,7 +12256,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>483</v>
       </c>
@@ -12297,7 +12297,7 @@
         <v>40798</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>485</v>
       </c>
@@ -12347,7 +12347,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>488</v>
       </c>
@@ -12397,7 +12397,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>491</v>
       </c>
@@ -12447,7 +12447,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>494</v>
       </c>
@@ -12497,7 +12497,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>499</v>
       </c>
@@ -12544,7 +12544,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>504</v>
       </c>
@@ -12615,7 +12615,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>511</v>
       </c>
@@ -12662,7 +12662,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
         <v>515</v>
       </c>
@@ -12697,7 +12697,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>520</v>
       </c>
@@ -12743,18 +12743,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12981,6 +12981,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{728C0C90-F4EE-4777-9C82-8F6A20EF934B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E3C3F1F-376F-491A-9774-D43DFCC92D67}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -12993,14 +13001,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="1047d03d-1da2-4dfb-82f7-392616ba7448"/>
     <ds:schemaRef ds:uri="8e226005-519f-48b5-8099-6dbbe2104feb"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{728C0C90-F4EE-4777-9C82-8F6A20EF934B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
